--- a/config_12.08/game_enter_btn_config.xlsx
+++ b/config_12.08/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1630,11 +1630,12 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,6 +1656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,6 +1775,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2505,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3022,7 +3038,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3059,11 +3075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4859,20 +4875,20 @@
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="20">
         <v>102</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="E103">
+      <c r="C103" s="20">
+        <v>1</v>
+      </c>
+      <c r="E103" s="20">
         <v>102</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="22" t="s">
         <v>284</v>
       </c>
     </row>

--- a/config_12.08/game_enter_btn_config.xlsx
+++ b/config_12.08/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1447,10 +1447,6 @@
     <t>新人七天乐（旧）</t>
   </si>
   <si>
-    <t>36;113;89;105#97;100;102;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_035_jhs",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1492,6 +1488,10 @@
   </si>
   <si>
     <t>111#112#53#79#100;36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2554,7 +2554,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3075,11 +3075,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F101" sqref="F101"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3104,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5067,7 +5067,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,19 +5101,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5492,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5511,7 +5511,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5534,7 +5534,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>

--- a/config_12.08/game_enter_btn_config.xlsx
+++ b/config_12.08/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1360,139 +1360,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>16;31;93#26#</t>
+    <t>"by3d_phb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜总入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108#104#95#72#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_shtx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_hd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_boss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_shtx",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>109#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69#73#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_035_ybwl",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-精彩活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-获取金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_jchd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_by3d_hqjb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐（旧）</t>
+  </si>
+  <si>
+    <t>"act_035_jhs",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110#84#114#42#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_xrqtl_old",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_ggxt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费(冲金鸡)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#2#8#61#115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_ad_mfcj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#53#79#100;36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_phb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜总入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#104#95#72#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_shtx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_hd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right_boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_shtx",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69#73#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_035_ybwl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-精彩活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-获取金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by3d_jchd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_by3d_hqjb",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_bottom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>92#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（旧）</t>
-  </si>
-  <si>
-    <t>"act_035_jhs",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>110#84#114#42#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_xrqtl_old",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cps_ggxt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费(冲金鸡)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3#2#8#61#115</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>condi_key|推荐的条件key可以为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_ad_mfcj",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#53#79#100;36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2120,7 +2120,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2605,10 +2605,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2616,10 +2616,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2627,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2697,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3076,10 +3076,10 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3104,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4982,7 +4982,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5008,7 +5008,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,7 +5016,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5025,7 +5025,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5050,7 +5050,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5067,7 +5067,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5084,7 +5084,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5101,19 +5101,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5316,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5349,7 +5349,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5492,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5511,7 +5511,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5534,7 +5534,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5606,10 +5606,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
